--- a/Results/xlsx/Result_RS.xlsx
+++ b/Results/xlsx/Result_RS.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2021-02-26 14:51</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2021-02-26 14:35</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2021-02-26 14:25</t>
+          <t>2021-03-02 19:25</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,7 +601,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2021-02-26 14:50</t>
+          <t>2021-03-02 19:19</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -628,7 +628,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2021-02-26 14:25</t>
+          <t>2021-03-02 19:25</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2021-02-26 14:39</t>
+          <t>2021-03-02 19:26</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -709,7 +709,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2021-02-26 14:36</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -763,7 +763,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2021-02-26 14:51</t>
+          <t>2021-03-02 19:21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2021-02-26 14:52</t>
+          <t>2021-03-02 19:22</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2021-02-26 14:26</t>
+          <t>2021-03-02 19:26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2021-02-26 14:27</t>
+          <t>2021-03-02 19:27</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -898,7 +898,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2021-02-26 14:49</t>
+          <t>2021-03-02 19:31</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2021-02-26 14:49</t>
+          <t>2021-03-02 19:12</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1033,7 +1033,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2021-02-26 14:33</t>
+          <t>2021-03-02 19:33</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2021-02-26 14:48</t>
+          <t>2021-03-02 19:36</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
